--- a/Therapy.xlsx
+++ b/Therapy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russe\Documents\PyPI\github\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15BD42AB-9E72-40DE-B404-BF2273541328}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3451BD-2D5C-48F1-AF1F-87215C9916AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13335" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="784" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="actions">[1]Methods!#REF!</definedName>
@@ -38,14 +37,14 @@
     <definedName name="levels">[1]Glossary!$C$31:$C$34</definedName>
     <definedName name="MaritalStatus">#REF!</definedName>
     <definedName name="MaritalStatus_3">#REF!</definedName>
-    <definedName name="medications" localSheetId="3">[4]Datatypes!$H$3:$H$8</definedName>
-    <definedName name="medications" localSheetId="4">[4]Datatypes!$H$3:$H$8</definedName>
-    <definedName name="medications" localSheetId="5">[4]Datatypes!$H$3:$H$8</definedName>
+    <definedName name="medications" localSheetId="3">[2]Datatypes!$H$3:$H$8</definedName>
+    <definedName name="medications" localSheetId="4">[2]Datatypes!$H$3:$H$8</definedName>
+    <definedName name="medications" localSheetId="5">[2]Datatypes!$H$3:$H$8</definedName>
     <definedName name="medications" localSheetId="7">Test!#REF!</definedName>
     <definedName name="medications">[3]Datatypes!$H$3:$H$8</definedName>
-    <definedName name="problems" localSheetId="3">[4]Datatypes!$H$12:$H$13</definedName>
-    <definedName name="problems" localSheetId="4">[4]Datatypes!$H$12:$H$13</definedName>
-    <definedName name="problems" localSheetId="5">[4]Datatypes!$H$12:$H$13</definedName>
+    <definedName name="problems" localSheetId="3">[2]Datatypes!$H$12:$H$13</definedName>
+    <definedName name="problems" localSheetId="4">[2]Datatypes!$H$12:$H$13</definedName>
+    <definedName name="problems" localSheetId="5">[2]Datatypes!$H$12:$H$13</definedName>
     <definedName name="problems" localSheetId="7">Test!#REF!</definedName>
     <definedName name="problems">[3]Datatypes!$H$12:$H$13</definedName>
     <definedName name="Salutation">#REF!</definedName>
@@ -57,14 +56,6 @@
   <webPublishObjects count="1">
     <webPublishObject id="21517" divId="RateMatrix_21517" destinationFile="C:\_ICP\IDE\eclipse\workspace\warner.openl\RateMatrix.htm"/>
   </webPublishObjects>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -296,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -683,7 +674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -851,6 +842,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,6 +917,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,83 +935,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,14 +982,58 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="TestData"/>
-      <sheetName val="Launcher"/>
-      <sheetName val="Env"/>
+      <sheetName val="Medication Rules"/>
+      <sheetName val="Dosing Rules"/>
+      <sheetName val="Drug Interaction"/>
+      <sheetName val="Data"/>
+      <sheetName val="Datatypes"/>
+      <sheetName val="Methods"/>
+      <sheetName val="Environment"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="H3" t="str">
+            <v>None</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4" t="str">
+            <v>Amoxicillin</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>Cefuroxime</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6" t="str">
+            <v>Levofloxacin</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7" t="str">
+            <v>Coumadin</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8" t="str">
+            <v>Penicillin</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Acute Sinusitis</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1063,67 +1101,6 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Medication Rules"/>
-      <sheetName val="Dosing Rules"/>
-      <sheetName val="Drug Interaction"/>
-      <sheetName val="Data"/>
-      <sheetName val="Datatypes"/>
-      <sheetName val="Methods"/>
-      <sheetName val="Environment"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="H3" t="str">
-            <v>None</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4" t="str">
-            <v>Amoxicillin</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5" t="str">
-            <v>Cefuroxime</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6" t="str">
-            <v>Levofloxacin</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7" t="str">
-            <v>Coumadin</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8" t="str">
-            <v>Penicillin</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12" t="str">
-            <v>Acute Sinusitis</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1449,16 +1426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
@@ -1481,11 +1458,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="79" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -1496,7 +1473,7 @@
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1482,7 @@
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1491,7 @@
       <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1500,7 @@
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1532,7 +1509,7 @@
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1543,7 +1520,7 @@
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1529,7 @@
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1538,7 @@
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1547,7 @@
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1556,7 @@
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1594,20 +1571,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.08984375" style="1"/>
+    <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1606,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="82" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -1640,7 +1617,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="26" t="s">
         <v>32</v>
       </c>
@@ -1649,7 +1626,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1635,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="26" t="s">
         <v>27</v>
       </c>
@@ -1687,37 +1664,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -1725,7 +1702,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="32"/>
@@ -1737,7 +1714,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -1749,7 +1726,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1778,40 +1755,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="5" max="5" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="87"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="12" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="69" t="s">
         <v>72</v>
       </c>
       <c r="E4"/>
@@ -1827,44 +1804,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="6.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="59" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="39" t="s">
@@ -1872,7 +1849,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="72" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -1885,7 +1862,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="71" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="31"/>
@@ -1900,7 +1877,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="71" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="31"/>
@@ -1921,39 +1898,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="6.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -1961,7 +1938,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -1970,17 +1947,17 @@
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="74" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="71" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1995,38 +1972,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="65"/>
-    </row>
-    <row r="3" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="27" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+    <row r="4" spans="2:4" ht="25.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="64" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="12"/>
@@ -2040,33 +2017,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="10.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.36328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="11"/>
+    <col min="7" max="7" width="10.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.08984375" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="75" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="49"/>
@@ -2083,7 +2060,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="2:13" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46">
         <v>1</v>
       </c>
@@ -2178,14 +2155,14 @@
       </c>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="56">
         <v>3</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="76" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -2210,13 +2187,13 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:13" ht="27" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="25.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G11" s="9" t="s">
         <v>69</v>
       </c>

--- a/Therapy.xlsx
+++ b/Therapy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russe\Documents\PyPI\github\pyDMNrules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/PyPI/github/pyDMNrules/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3451BD-2D5C-48F1-AF1F-87215C9916AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="784" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="784" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="14" r:id="rId1"/>
@@ -1433,21 +1433,21 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="12.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
@@ -1574,27 +1574,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
-    <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.609375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="82" t="s">
         <v>69</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="83"/>
       <c r="C5" s="26" t="s">
         <v>32</v>
@@ -1625,7 +1625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="83"/>
       <c r="C6" s="26" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="84"/>
       <c r="C7" s="26" t="s">
         <v>27</v>
@@ -1643,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:4" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="29" t="s">
         <v>73</v>
       </c>
@@ -1671,23 +1671,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.609375" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="85" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="70" t="s">
         <v>53</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="67" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="57" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="57" t="s">
         <v>56</v>
       </c>
@@ -1737,14 +1737,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
@@ -1759,24 +1759,24 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="40.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="40.38671875" customWidth="1"/>
+    <col min="4" max="4" width="29.38671875" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="87"/>
     </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="62" t="s">
         <v>53</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="12" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="12" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="61" t="s">
         <v>57</v>
       </c>
@@ -1811,19 +1811,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="6"/>
+    <col min="1" max="1" width="6.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.609375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.609375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.38671875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="88" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="73" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="72" t="s">
         <v>58</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="71" t="s">
         <v>59</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="71" t="s">
         <v>60</v>
       </c>
@@ -1905,25 +1905,25 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="6"/>
+    <col min="1" max="1" width="6.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.609375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.609375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="73" t="s">
         <v>53</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="72" t="s">
         <v>61</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="71" t="s">
         <v>71</v>
       </c>
@@ -1975,23 +1975,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.38671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="87"/>
     </row>
-    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="65" t="s">
         <v>53</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="25.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="24.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="66" t="s">
         <v>62</v>
       </c>
@@ -2024,25 +2024,25 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="11"/>
-    <col min="7" max="7" width="10.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.08984375" style="11"/>
+    <col min="1" max="1" width="4.38671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="11"/>
+    <col min="7" max="7" width="10.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.38671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="75" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="2:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="12.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="46">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="13">
         <v>1</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -2181,25 +2181,25 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="G9" s="40" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:13" ht="25.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="24.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="G11" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
